--- a/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
+++ b/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="7935" windowWidth="20055" xWindow="240" yWindow="75"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="9555" windowHeight="3225" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderDetail" r:id="rId1" sheetId="1"/>
-    <sheet name="PatientDetail" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="OrderDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="PatientDetail" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLoginDetail" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Address</t>
   </si>
@@ -57,111 +57,6 @@
     <t>survey</t>
   </si>
   <si>
-    <t>SURVEY_STAGE__MORNING"]</t>
-  </si>
-  <si>
-    <t>SURVEY_STAGE__NOON"]</t>
-  </si>
-  <si>
-    <t>SURVEY_STAGE__EVENING"]</t>
-  </si>
-  <si>
-    <t>primaryProv"]</t>
-  </si>
-  <si>
-    <t>secondaryProv"]</t>
-  </si>
-  <si>
-    <t>tertiaryProv"]</t>
-  </si>
-  <si>
-    <t>btnSave"]</t>
-  </si>
-  <si>
-    <t>btnCancel"]</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>initName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>prefName</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>radios-0</t>
-  </si>
-  <si>
-    <t>radios-1</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>institutions</t>
-  </si>
-  <si>
-    <t>addressLine</t>
-  </si>
-  <si>
-    <t>addressLine2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>timeZone</t>
-  </si>
-  <si>
-    <t>preferredContactType-1</t>
-  </si>
-  <si>
-    <t>preferredContactType-0</t>
-  </si>
-  <si>
-    <t>hPhone</t>
-  </si>
-  <si>
-    <t>cPhone</t>
-  </si>
-  <si>
-    <t>wPhone</t>
-  </si>
-  <si>
-    <t>phonePrimary</t>
-  </si>
-  <si>
-    <t>phonePrimary1</t>
-  </si>
-  <si>
-    <t>phonePrimary2</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>sEmail</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>InitName</t>
   </si>
   <si>
@@ -243,15 +138,9 @@
     <t>TertiaryProvider</t>
   </si>
   <si>
-    <t>Amitabh</t>
-  </si>
-  <si>
     <t>ji</t>
   </si>
   <si>
-    <t>Bachchan</t>
-  </si>
-  <si>
     <t>Amitji</t>
   </si>
   <si>
@@ -264,12 +153,6 @@
     <t>Dallas</t>
   </si>
   <si>
-    <t>learntdevops+1@gmail.com</t>
-  </si>
-  <si>
-    <t>learntdevops+2@gmail.com</t>
-  </si>
-  <si>
     <t>Facebook@123</t>
   </si>
   <si>
@@ -300,206 +183,34 @@
     <t>Preference</t>
   </si>
   <si>
-    <t>"1/1/1990"</t>
-  </si>
-  <si>
     <t>US/Pacific</t>
   </si>
   <si>
-    <t>999988887'</t>
-  </si>
-  <si>
-    <t>999988886'</t>
-  </si>
-  <si>
-    <t>999977775'</t>
-  </si>
-  <si>
-    <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
-  </si>
-  <si>
-    <t>'01/01/1930</t>
-  </si>
-  <si>
-    <t>learntdevops+30@gmail.com</t>
-  </si>
-  <si>
-    <t>ABCDE</t>
-  </si>
-  <si>
-    <t>'01/01/1949</t>
-  </si>
-  <si>
-    <t>learntdevops+49@gmail.com</t>
-  </si>
-  <si>
-    <t>'01/01/1948</t>
-  </si>
-  <si>
-    <t>learntdevops+48@gmail.com</t>
-  </si>
-  <si>
-    <t>YKWMZ</t>
-  </si>
-  <si>
-    <t>ENVUP</t>
-  </si>
-  <si>
-    <t>'01/01/1916</t>
-  </si>
-  <si>
-    <t>learntdevops+16@gmail.com</t>
-  </si>
-  <si>
-    <t>CMIKK</t>
-  </si>
-  <si>
-    <t>BEEBD</t>
-  </si>
-  <si>
-    <t>'01/01/1920</t>
-  </si>
-  <si>
-    <t>learntdevops+20@gmail.com</t>
-  </si>
-  <si>
-    <t>LQKNZ</t>
-  </si>
-  <si>
-    <t>JWXDF</t>
+    <t>learntdevops+18@gmail.com</t>
+  </si>
+  <si>
+    <t>ZWEWKKJCJXMYYJCZJB</t>
+  </si>
+  <si>
+    <t>VNOBYLFCSIHFSQGLLG</t>
   </si>
   <si>
     <t>'01/01/1918</t>
   </si>
   <si>
-    <t>learntdevops+18@gmail.com</t>
-  </si>
-  <si>
-    <t>OMKMS</t>
-  </si>
-  <si>
-    <t>CGJKA</t>
-  </si>
-  <si>
-    <t>'01/01/1931</t>
-  </si>
-  <si>
-    <t>learntdevops+31@gmail.com</t>
-  </si>
-  <si>
-    <t>ETBNA</t>
-  </si>
-  <si>
-    <t>QJNJC</t>
-  </si>
-  <si>
-    <t>'01/01/1942</t>
-  </si>
-  <si>
-    <t>learntdevops+42@gmail.com</t>
-  </si>
-  <si>
-    <t>HPZUP</t>
-  </si>
-  <si>
-    <t>DKEHG</t>
-  </si>
-  <si>
-    <t>'01/01/1910</t>
-  </si>
-  <si>
-    <t>learntdevops+10@gmail.com</t>
-  </si>
-  <si>
-    <t>VAMZD</t>
-  </si>
-  <si>
-    <t>IRJJD</t>
-  </si>
-  <si>
-    <t>'01/01/1940</t>
-  </si>
-  <si>
-    <t>learntdevops+40@gmail.com</t>
-  </si>
-  <si>
-    <t>learntdevops+41@gmail.com</t>
-  </si>
-  <si>
-    <t>DSEFK</t>
-  </si>
-  <si>
-    <t>PUUSN</t>
-  </si>
-  <si>
-    <t>'01/01/192</t>
-  </si>
-  <si>
-    <t>learntdevops+3@gmail.com</t>
-  </si>
-  <si>
-    <t>RMANP</t>
-  </si>
-  <si>
-    <t>UYJWA</t>
-  </si>
-  <si>
-    <t>'01/01/1923</t>
-  </si>
-  <si>
-    <t>learntdevops+23@gmail.com</t>
-  </si>
-  <si>
-    <t>learntdevops+24@gmail.com</t>
-  </si>
-  <si>
-    <t>MCNEV</t>
-  </si>
-  <si>
-    <t>GOGCS</t>
-  </si>
-  <si>
-    <t>PJPPT</t>
-  </si>
-  <si>
-    <t>MEGSG</t>
-  </si>
-  <si>
-    <t>'01/01/1914</t>
-  </si>
-  <si>
-    <t>learntdevops+14@gmail.com</t>
-  </si>
-  <si>
-    <t>learntdevops+15@gmail.com</t>
-  </si>
-  <si>
-    <t>ZPRFAVXYYRSVNWQGKNV</t>
-  </si>
-  <si>
-    <t>WUOMEIEXFNAMNEZZVPB</t>
-  </si>
-  <si>
-    <t>'01/01/1919</t>
-  </si>
-  <si>
     <t>learntdevops+19@gmail.com</t>
   </si>
   <si>
-    <t>ETGNUSONWS</t>
-  </si>
-  <si>
-    <t>QYYLLZBCAC</t>
-  </si>
-  <si>
-    <t>learntdevops+11@gmail.com</t>
+    <t>Secret123</t>
+  </si>
+  <si>
+    <t>JohnFitzgeraldKennedy@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,23 +274,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -593,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -754,7 +464,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -763,13 +473,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -779,7 +489,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -788,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -797,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -807,12 +517,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -843,7 +553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -862,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -874,16 +584,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,25 +626,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="17" max="19" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -942,189 +652,189 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <v>47600</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>98</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>9999888879</v>
+      </c>
+      <c r="R2" s="4">
+        <v>9999888869</v>
+      </c>
+      <c r="S2" s="4">
+        <v>9999777759</v>
       </c>
       <c r="T2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,132 +858,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="W2"/>
-    <hyperlink r:id="rId2" ref="X2"/>
-    <hyperlink r:id="rId3" ref="Y2"/>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="X2" r:id="rId2"/>
+    <hyperlink ref="Y2" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>201030</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
+++ b/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>Address</t>
   </si>
@@ -205,12 +205,82 @@
   </si>
   <si>
     <t>JohnFitzgeraldKennedy@gmail.com</t>
+  </si>
+  <si>
+    <t>QQNVWEWYQQU</t>
+  </si>
+  <si>
+    <t>VLOAZQHVCRT</t>
+  </si>
+  <si>
+    <t>'01/01/1911</t>
+  </si>
+  <si>
+    <t>learntdevops+11@gmail.com</t>
+  </si>
+  <si>
+    <t>learntdevops+12@gmail.com</t>
+  </si>
+  <si>
+    <t>JAGYOQIRXFZ</t>
+  </si>
+  <si>
+    <t>IXUOMTLHLPL</t>
+  </si>
+  <si>
+    <t>MDFGFLTOHNTVXBXEHNB</t>
+  </si>
+  <si>
+    <t>OOOHWCMIOLTVPRZISPS</t>
+  </si>
+  <si>
+    <t>'01/01/1919</t>
+  </si>
+  <si>
+    <t>learntdevops+20@gmail.com</t>
+  </si>
+  <si>
+    <t>QAXEFZUJZJKTEEW</t>
+  </si>
+  <si>
+    <t>PIKCAKTMHIAQTEH</t>
+  </si>
+  <si>
+    <t>'01/01/1915</t>
+  </si>
+  <si>
+    <t>learntdevops+15@gmail.com</t>
+  </si>
+  <si>
+    <t>learntdevops+16@gmail.com</t>
+  </si>
+  <si>
+    <t>YGHDCJRLSGQCUBZV</t>
+  </si>
+  <si>
+    <t>BINIQHXDUUNZFCGN</t>
+  </si>
+  <si>
+    <t>'01/01/1916</t>
+  </si>
+  <si>
+    <t>learntdevops+17@gmail.com</t>
+  </si>
+  <si>
+    <t>CILPZDZTSBACYHLFU</t>
+  </si>
+  <si>
+    <t>IBKWCZQYWNXRQBEMO</t>
+  </si>
+  <si>
+    <t>'01/01/1917</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,7 +663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,8 +713,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="17" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -744,19 +814,19 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -810,10 +880,10 @@
         <v>49</v>
       </c>
       <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
         <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>60</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>45</v>

--- a/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
+++ b/src/test/java/com/test/mainlinetestvismc/repository/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2835" windowWidth="9555" windowHeight="3225" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="9090" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetail" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="InvalidLoginDetail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="L1:S18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Address</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>kannact-admin@maikannact.com</t>
-  </si>
-  <si>
     <t>Secret1234!</t>
   </si>
   <si>
@@ -171,9 +169,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Mainline Test Internal</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -186,64 +181,76 @@
     <t>US/Pacific</t>
   </si>
   <si>
-    <t>learntdevops+18@gmail.com</t>
-  </si>
-  <si>
-    <t>ZWEWKKJCJXMYYJCZJB</t>
-  </si>
-  <si>
-    <t>VNOBYLFCSIHFSQGLLG</t>
-  </si>
-  <si>
-    <t>'01/01/1918</t>
-  </si>
-  <si>
-    <t>learntdevops+19@gmail.com</t>
-  </si>
-  <si>
     <t>Secret123</t>
   </si>
   <si>
     <t>JohnFitzgeraldKennedy@gmail.com</t>
   </si>
   <si>
-    <t>QQNVWEWYQQU</t>
-  </si>
-  <si>
-    <t>VLOAZQHVCRT</t>
-  </si>
-  <si>
-    <t>'01/01/1911</t>
+    <t>kannact-admin@indiastaging.vismc.com</t>
+  </si>
+  <si>
+    <t>indiastaging Internal</t>
+  </si>
+  <si>
+    <t>999-988-8879</t>
+  </si>
+  <si>
+    <t>999-988-8869</t>
+  </si>
+  <si>
+    <t>999-977-7759</t>
+  </si>
+  <si>
+    <t>CZWYIIDLODEDQ</t>
+  </si>
+  <si>
+    <t>HQYQKTSBVYJKE</t>
+  </si>
+  <si>
+    <t>'01/01/1913</t>
+  </si>
+  <si>
+    <t>learntdevops+13@gmail.com</t>
+  </si>
+  <si>
+    <t>learntdevops+14@gmail.com</t>
+  </si>
+  <si>
+    <t>YMNXKYQKMB</t>
+  </si>
+  <si>
+    <t>BJEIILFDMC</t>
+  </si>
+  <si>
+    <t>'01/01/1910</t>
+  </si>
+  <si>
+    <t>learntdevops+10@gmail.com</t>
   </si>
   <si>
     <t>learntdevops+11@gmail.com</t>
   </si>
   <si>
-    <t>learntdevops+12@gmail.com</t>
-  </si>
-  <si>
-    <t>JAGYOQIRXFZ</t>
-  </si>
-  <si>
-    <t>IXUOMTLHLPL</t>
-  </si>
-  <si>
-    <t>MDFGFLTOHNTVXBXEHNB</t>
-  </si>
-  <si>
-    <t>OOOHWCMIOLTVPRZISPS</t>
-  </si>
-  <si>
-    <t>'01/01/1919</t>
-  </si>
-  <si>
-    <t>learntdevops+20@gmail.com</t>
-  </si>
-  <si>
-    <t>QAXEFZUJZJKTEEW</t>
-  </si>
-  <si>
-    <t>PIKCAKTMHIAQTEH</t>
+    <t>FFEVKSUFXFPVZNJE</t>
+  </si>
+  <si>
+    <t>ZWPZZEITDDSAPUMT</t>
+  </si>
+  <si>
+    <t>'01/01/1916</t>
+  </si>
+  <si>
+    <t>learntdevops+16@gmail.com</t>
+  </si>
+  <si>
+    <t>learntdevops+17@gmail.com</t>
+  </si>
+  <si>
+    <t>RIVWLATGIWZPHDT</t>
+  </si>
+  <si>
+    <t>UKNQNEAYAQXYGWU</t>
   </si>
   <si>
     <t>'01/01/1915</t>
@@ -252,28 +259,16 @@
     <t>learntdevops+15@gmail.com</t>
   </si>
   <si>
-    <t>learntdevops+16@gmail.com</t>
-  </si>
-  <si>
-    <t>YGHDCJRLSGQCUBZV</t>
-  </si>
-  <si>
-    <t>BINIQHXDUUNZFCGN</t>
-  </si>
-  <si>
-    <t>'01/01/1916</t>
-  </si>
-  <si>
-    <t>learntdevops+17@gmail.com</t>
-  </si>
-  <si>
-    <t>CILPZDZTSBACYHLFU</t>
-  </si>
-  <si>
-    <t>IBKWCZQYWNXRQBEMO</t>
-  </si>
-  <si>
-    <t>'01/01/1917</t>
+    <t>FBVZGXEPJWZQNET</t>
+  </si>
+  <si>
+    <t>ACGGJIGSCIEDQDH</t>
+  </si>
+  <si>
+    <t>OFGJUZCAHHAJGTQ</t>
+  </si>
+  <si>
+    <t>JDIYUOYCBMOGHDW</t>
   </si>
 </sst>
 </file>
@@ -658,7 +653,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +683,10 @@
         <v>201030</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -707,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,211 +714,211 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2">
         <v>47600</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
       <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>9999888879</v>
-      </c>
-      <c r="R2" s="4">
-        <v>9999888869</v>
-      </c>
-      <c r="S2" s="4">
-        <v>9999777759</v>
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
       <c r="AE2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -940,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +963,10 @@
         <v>201030</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
